--- a/biology/Zoologie/Heteropoda_lunula/Heteropoda_lunula.xlsx
+++ b/biology/Zoologie/Heteropoda_lunula/Heteropoda_lunula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteropoda lunula est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Malaisie et en Indonésie. On la trouve aussi de l'Inde, au Vietnam, à Java, Sumatra et Bornéo. Cette espèce vit dans les forêts tropicales.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grande espèce, la femelle peut mesurer 5 à 6 cm de corps pour une bonne quinzaine de centimètres d'envergure, le mâle est plus frêle mais peut avoir une envergure supérieure à celle de la femelle, jusqu'à 18 ou 20 cm, voire plus. Elle est de couleur violet ou marron.
 </t>
@@ -573,7 +589,9 @@
           <t>Systématique et Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Olios lunula en 1857. Elle a été placée dans le genre Heteropoda par Jäger en 2002.
 Elle a pour synonymes:
@@ -618,7 +636,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est assez courrante en en terrariophilie.
  Portail de l’arachnologie   Portail de la biologie                    </t>
